--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-coverage.xlsx
@@ -637,7 +637,7 @@
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。  
-【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用している例があげられている。JP Coreとして本項目に対する用語のバインドは現時点では定義するまでに至っていない。</t>
+【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される保険種別コード（system=”http://jpfhir.jp/fhir/core/mhlw/IdSystem/medicalRegistrationNumber”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用している例があげられている。JP Coreとして本項目に対する用語のバインドは現時点では定義するまでに至っていない。</t>
   </si>
   <si>
     <t>The order of application of coverages is dependent on the types of coverage.  
@@ -803,7 +803,7 @@
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.  
 患者と加入者の関係を決定し、給付の調整を決定する。  
-【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。  
+【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される被保険者区分コード（system=”http://jpfhir.jp/fhir/core/mhlw/CodeSystem/InsuredPersonCategory”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。  
 　1 被保険者  
 　2 被扶養者</t>
   </si>
